--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/81/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/81/FD_Curve.xlsx
@@ -510,10 +510,10 @@
         <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>5.31966</v>
+        <v>5.63424</v>
       </c>
       <c r="C7" t="n">
-        <v>5319.66</v>
+        <v>5634.24</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>5.51316</v>
+        <v>6.667590000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>5513.16</v>
+        <v>6667.59</v>
       </c>
     </row>
     <row r="9">
@@ -532,1033 +532,1033 @@
         <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>5.64127</v>
+        <v>7.86267</v>
       </c>
       <c r="C9" t="n">
-        <v>5641.27</v>
+        <v>7862.67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247965</v>
+        <v>0.247923</v>
       </c>
       <c r="B10" t="n">
-        <v>5.697100000000001</v>
+        <v>8.91722</v>
       </c>
       <c r="C10" t="n">
-        <v>5697.1</v>
+        <v>8917.219999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278892</v>
+        <v>0.278848</v>
       </c>
       <c r="B11" t="n">
-        <v>5.73946</v>
+        <v>9.8169</v>
       </c>
       <c r="C11" t="n">
-        <v>5739.46</v>
+        <v>9816.9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309817</v>
+        <v>0.309773</v>
       </c>
       <c r="B12" t="n">
-        <v>5.7664</v>
+        <v>10.4928</v>
       </c>
       <c r="C12" t="n">
-        <v>5766.4</v>
+        <v>10492.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340742</v>
+        <v>0.340699</v>
       </c>
       <c r="B13" t="n">
-        <v>5.79265</v>
+        <v>11.097</v>
       </c>
       <c r="C13" t="n">
-        <v>5792.65</v>
+        <v>11097</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371668</v>
+        <v>0.371624</v>
       </c>
       <c r="B14" t="n">
-        <v>5.81765</v>
+        <v>11.3324</v>
       </c>
       <c r="C14" t="n">
-        <v>5817.65</v>
+        <v>11332.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402593</v>
+        <v>0.402549</v>
       </c>
       <c r="B15" t="n">
-        <v>5.83929</v>
+        <v>11.2858</v>
       </c>
       <c r="C15" t="n">
-        <v>5839.29</v>
+        <v>11285.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433518</v>
+        <v>0.433474</v>
       </c>
       <c r="B16" t="n">
-        <v>5.858300000000001</v>
+        <v>11.2586</v>
       </c>
       <c r="C16" t="n">
-        <v>5858.3</v>
+        <v>11258.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464443</v>
+        <v>0.464399</v>
       </c>
       <c r="B17" t="n">
-        <v>5.87671</v>
+        <v>11.2138</v>
       </c>
       <c r="C17" t="n">
-        <v>5876.71</v>
+        <v>11213.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495368</v>
+        <v>0.495324</v>
       </c>
       <c r="B18" t="n">
-        <v>5.89388</v>
+        <v>11.1652</v>
       </c>
       <c r="C18" t="n">
-        <v>5893.88</v>
+        <v>11165.2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526293</v>
+        <v>0.526249</v>
       </c>
       <c r="B19" t="n">
-        <v>5.90964</v>
+        <v>11.1127</v>
       </c>
       <c r="C19" t="n">
-        <v>5909.64</v>
+        <v>11112.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557218</v>
+        <v>0.5571739999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>5.92452</v>
+        <v>11.0514</v>
       </c>
       <c r="C20" t="n">
-        <v>5924.52</v>
+        <v>11051.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588143</v>
+        <v>0.588099</v>
       </c>
       <c r="B21" t="n">
-        <v>5.93893</v>
+        <v>10.9848</v>
       </c>
       <c r="C21" t="n">
-        <v>5938.93</v>
+        <v>10984.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619185</v>
+        <v>0.6191410000000001</v>
       </c>
       <c r="B22" t="n">
-        <v>5.952229999999999</v>
+        <v>10.9142</v>
       </c>
       <c r="C22" t="n">
-        <v>5952.23</v>
+        <v>10914.2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650357</v>
+        <v>0.650313</v>
       </c>
       <c r="B23" t="n">
-        <v>5.96519</v>
+        <v>10.8357</v>
       </c>
       <c r="C23" t="n">
-        <v>5965.19</v>
+        <v>10835.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.68153</v>
+        <v>0.681486</v>
       </c>
       <c r="B24" t="n">
-        <v>5.97726</v>
+        <v>10.7525</v>
       </c>
       <c r="C24" t="n">
-        <v>5977.26</v>
+        <v>10752.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712707</v>
+        <v>0.712663</v>
       </c>
       <c r="B25" t="n">
-        <v>5.98876</v>
+        <v>10.6664</v>
       </c>
       <c r="C25" t="n">
-        <v>5988.76</v>
+        <v>10666.4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.74388</v>
+        <v>0.7438360000000001</v>
       </c>
       <c r="B26" t="n">
-        <v>5.99954</v>
+        <v>10.571</v>
       </c>
       <c r="C26" t="n">
-        <v>5999.54</v>
+        <v>10571</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775057</v>
+        <v>0.775013</v>
       </c>
       <c r="B27" t="n">
-        <v>6.009840000000001</v>
+        <v>10.4766</v>
       </c>
       <c r="C27" t="n">
-        <v>6009.84</v>
+        <v>10476.6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806229</v>
+        <v>0.806185</v>
       </c>
       <c r="B28" t="n">
-        <v>6.01965</v>
+        <v>10.371</v>
       </c>
       <c r="C28" t="n">
-        <v>6019.65</v>
+        <v>10371</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837402</v>
+        <v>0.837358</v>
       </c>
       <c r="B29" t="n">
-        <v>6.02887</v>
+        <v>10.2663</v>
       </c>
       <c r="C29" t="n">
-        <v>6028.87</v>
+        <v>10266.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868579</v>
+        <v>0.8685349999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>6.03763</v>
+        <v>10.1521</v>
       </c>
       <c r="C30" t="n">
-        <v>6037.63</v>
+        <v>10152.1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899751</v>
+        <v>0.899707</v>
       </c>
       <c r="B31" t="n">
-        <v>6.045920000000001</v>
+        <v>10.0352</v>
       </c>
       <c r="C31" t="n">
-        <v>6045.92</v>
+        <v>10035.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930924</v>
+        <v>0.93088</v>
       </c>
       <c r="B32" t="n">
-        <v>6.053770000000001</v>
+        <v>9.91249</v>
       </c>
       <c r="C32" t="n">
-        <v>6053.77</v>
+        <v>9912.49</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962101</v>
+        <v>0.9620570000000001</v>
       </c>
       <c r="B33" t="n">
-        <v>6.0612</v>
+        <v>9.78223</v>
       </c>
       <c r="C33" t="n">
-        <v>6061.2</v>
+        <v>9782.23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993273</v>
+        <v>0.993229</v>
       </c>
       <c r="B34" t="n">
-        <v>6.06823</v>
+        <v>9.65043</v>
       </c>
       <c r="C34" t="n">
-        <v>6068.23</v>
+        <v>9650.43</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02458</v>
+        <v>1.02454</v>
       </c>
       <c r="B35" t="n">
-        <v>6.07491</v>
+        <v>9.50896</v>
       </c>
       <c r="C35" t="n">
-        <v>6074.91</v>
+        <v>9508.959999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05596</v>
+        <v>1.05568</v>
       </c>
       <c r="B36" t="n">
-        <v>6.0812</v>
+        <v>7.63394</v>
       </c>
       <c r="C36" t="n">
-        <v>6081.2</v>
+        <v>7633.94</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08734</v>
+        <v>1.08662</v>
       </c>
       <c r="B37" t="n">
-        <v>6.0871</v>
+        <v>6.34572</v>
       </c>
       <c r="C37" t="n">
-        <v>6087.1</v>
+        <v>6345.72</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11872</v>
+        <v>1.11766</v>
       </c>
       <c r="B38" t="n">
-        <v>6.092680000000001</v>
+        <v>8.334520000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>6092.68</v>
+        <v>8334.52</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.1501</v>
+        <v>1.14861</v>
       </c>
       <c r="B39" t="n">
-        <v>6.09788</v>
+        <v>9.202879999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>6097.88</v>
+        <v>9202.879999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18148</v>
+        <v>1.17967</v>
       </c>
       <c r="B40" t="n">
-        <v>6.10276</v>
+        <v>9.02285</v>
       </c>
       <c r="C40" t="n">
-        <v>6102.76</v>
+        <v>9022.85</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21286</v>
+        <v>1.21067</v>
       </c>
       <c r="B41" t="n">
-        <v>6.10735</v>
+        <v>8.574280000000002</v>
       </c>
       <c r="C41" t="n">
-        <v>6107.35</v>
+        <v>8574.280000000001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24424</v>
+        <v>1.24201</v>
       </c>
       <c r="B42" t="n">
-        <v>6.11163</v>
+        <v>8.540700000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>6111.63</v>
+        <v>8540.700000000001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27562</v>
+        <v>1.27282</v>
       </c>
       <c r="B43" t="n">
-        <v>6.11561</v>
+        <v>8.32991</v>
       </c>
       <c r="C43" t="n">
-        <v>6115.61</v>
+        <v>8329.91</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.307</v>
+        <v>1.30392</v>
       </c>
       <c r="B44" t="n">
-        <v>6.11929</v>
+        <v>8.12011</v>
       </c>
       <c r="C44" t="n">
-        <v>6119.29</v>
+        <v>8120.11</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33838</v>
+        <v>1.33498</v>
       </c>
       <c r="B45" t="n">
-        <v>6.122680000000001</v>
+        <v>7.978770000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>6122.68</v>
+        <v>7978.77</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36976</v>
+        <v>1.36602</v>
       </c>
       <c r="B46" t="n">
-        <v>6.12578</v>
+        <v>7.87589</v>
       </c>
       <c r="C46" t="n">
-        <v>6125.78</v>
+        <v>7875.89</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.40115</v>
+        <v>1.39706</v>
       </c>
       <c r="B47" t="n">
-        <v>6.12859</v>
+        <v>7.65472</v>
       </c>
       <c r="C47" t="n">
-        <v>6128.59</v>
+        <v>7654.72</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.43252</v>
+        <v>1.42806</v>
       </c>
       <c r="B48" t="n">
-        <v>6.13114</v>
+        <v>7.436500000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>6131.14</v>
+        <v>7436.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.46391</v>
+        <v>1.45896</v>
       </c>
       <c r="B49" t="n">
-        <v>6.1334</v>
+        <v>7.164020000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>6133.4</v>
+        <v>7164.02</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49529</v>
+        <v>1.49</v>
       </c>
       <c r="B50" t="n">
-        <v>6.13538</v>
+        <v>7.08596</v>
       </c>
       <c r="C50" t="n">
-        <v>6135.38</v>
+        <v>7085.96</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52667</v>
+        <v>1.52091</v>
       </c>
       <c r="B51" t="n">
-        <v>6.13708</v>
+        <v>6.996560000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>6137.08</v>
+        <v>6996.56</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55805</v>
+        <v>1.55204</v>
       </c>
       <c r="B52" t="n">
-        <v>6.13851</v>
+        <v>6.875649999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>6138.51</v>
+        <v>6875.65</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58943</v>
+        <v>1.58285</v>
       </c>
       <c r="B53" t="n">
-        <v>6.139670000000001</v>
+        <v>6.691520000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>6139.67</v>
+        <v>6691.52</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.62081</v>
+        <v>1.61413</v>
       </c>
       <c r="B54" t="n">
-        <v>6.14053</v>
+        <v>6.49546</v>
       </c>
       <c r="C54" t="n">
-        <v>6140.53</v>
+        <v>6495.46</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.65219</v>
+        <v>1.64494</v>
       </c>
       <c r="B55" t="n">
-        <v>6.14112</v>
+        <v>6.41091</v>
       </c>
       <c r="C55" t="n">
-        <v>6141.12</v>
+        <v>6410.91</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.68335</v>
+        <v>1.67599</v>
       </c>
       <c r="B56" t="n">
-        <v>6.141439999999999</v>
+        <v>6.33582</v>
       </c>
       <c r="C56" t="n">
-        <v>6141.44</v>
+        <v>6335.82</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.71432</v>
+        <v>1.70717</v>
       </c>
       <c r="B57" t="n">
-        <v>6.14146</v>
+        <v>6.20764</v>
       </c>
       <c r="C57" t="n">
-        <v>6141.46</v>
+        <v>6207.64</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.74528</v>
+        <v>1.73781</v>
       </c>
       <c r="B58" t="n">
-        <v>6.141220000000001</v>
+        <v>6.08988</v>
       </c>
       <c r="C58" t="n">
-        <v>6141.22</v>
+        <v>6089.88</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.77625</v>
+        <v>1.76915</v>
       </c>
       <c r="B59" t="n">
-        <v>6.140689999999999</v>
+        <v>6.00016</v>
       </c>
       <c r="C59" t="n">
-        <v>6140.69</v>
+        <v>6000.16</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80722</v>
+        <v>1.80022</v>
       </c>
       <c r="B60" t="n">
-        <v>6.13986</v>
+        <v>5.89791</v>
       </c>
       <c r="C60" t="n">
-        <v>6139.86</v>
+        <v>5897.91</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83819</v>
+        <v>1.8307</v>
       </c>
       <c r="B61" t="n">
-        <v>6.13873</v>
+        <v>5.87317</v>
       </c>
       <c r="C61" t="n">
-        <v>6138.73</v>
+        <v>5873.17</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86915</v>
+        <v>1.86212</v>
       </c>
       <c r="B62" t="n">
-        <v>6.137270000000001</v>
+        <v>5.702140000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>6137.27</v>
+        <v>5702.14</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.90007</v>
+        <v>1.89322</v>
       </c>
       <c r="B63" t="n">
-        <v>6.13542</v>
+        <v>5.65113</v>
       </c>
       <c r="C63" t="n">
-        <v>6135.42</v>
+        <v>5651.13</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.93063</v>
+        <v>1.92382</v>
       </c>
       <c r="B64" t="n">
-        <v>6.1332</v>
+        <v>5.576510000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>6133.2</v>
+        <v>5576.51</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.96118</v>
+        <v>1.95513</v>
       </c>
       <c r="B65" t="n">
-        <v>6.130680000000001</v>
+        <v>5.50704</v>
       </c>
       <c r="C65" t="n">
-        <v>6130.68</v>
+        <v>5507.04</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.99174</v>
+        <v>1.98638</v>
       </c>
       <c r="B66" t="n">
-        <v>6.12783</v>
+        <v>5.40005</v>
       </c>
       <c r="C66" t="n">
-        <v>6127.83</v>
+        <v>5400.05</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.02229</v>
+        <v>2.01745</v>
       </c>
       <c r="B67" t="n">
-        <v>6.12471</v>
+        <v>5.36188</v>
       </c>
       <c r="C67" t="n">
-        <v>6124.71</v>
+        <v>5361.88</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.05292</v>
+        <v>2.04776</v>
       </c>
       <c r="B68" t="n">
-        <v>6.12122</v>
+        <v>5.285810000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>6121.22</v>
+        <v>5285.81</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.0845</v>
+        <v>2.07909</v>
       </c>
       <c r="B69" t="n">
-        <v>6.11736</v>
+        <v>5.22942</v>
       </c>
       <c r="C69" t="n">
-        <v>6117.36</v>
+        <v>5229.42</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11607</v>
+        <v>2.11059</v>
       </c>
       <c r="B70" t="n">
-        <v>6.1131</v>
+        <v>5.15566</v>
       </c>
       <c r="C70" t="n">
-        <v>6113.1</v>
+        <v>5155.66</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14764</v>
+        <v>2.142</v>
       </c>
       <c r="B71" t="n">
-        <v>6.10849</v>
+        <v>5.11106</v>
       </c>
       <c r="C71" t="n">
-        <v>6108.49</v>
+        <v>5111.06</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17922</v>
+        <v>2.17157</v>
       </c>
       <c r="B72" t="n">
-        <v>6.103569999999999</v>
+        <v>5.03111</v>
       </c>
       <c r="C72" t="n">
-        <v>6103.57</v>
+        <v>5031.11</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.21079</v>
+        <v>2.20267</v>
       </c>
       <c r="B73" t="n">
-        <v>6.09824</v>
+        <v>4.99234</v>
       </c>
       <c r="C73" t="n">
-        <v>6098.24</v>
+        <v>4992.34</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.24236</v>
+        <v>2.23474</v>
       </c>
       <c r="B74" t="n">
-        <v>6.09258</v>
+        <v>4.95007</v>
       </c>
       <c r="C74" t="n">
-        <v>6092.58</v>
+        <v>4950.07</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.27372</v>
+        <v>2.26561</v>
       </c>
       <c r="B75" t="n">
-        <v>6.08659</v>
+        <v>4.93937</v>
       </c>
       <c r="C75" t="n">
-        <v>6086.59</v>
+        <v>4939.37</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.30444</v>
+        <v>2.29633</v>
       </c>
       <c r="B76" t="n">
-        <v>6.08016</v>
+        <v>4.90685</v>
       </c>
       <c r="C76" t="n">
-        <v>6080.16</v>
+        <v>4906.85</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.33516</v>
+        <v>2.32724</v>
       </c>
       <c r="B77" t="n">
-        <v>6.07329</v>
+        <v>4.89052</v>
       </c>
       <c r="C77" t="n">
-        <v>6073.29</v>
+        <v>4890.52</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.36588</v>
+        <v>2.35852</v>
       </c>
       <c r="B78" t="n">
-        <v>6.066050000000001</v>
+        <v>4.90721</v>
       </c>
       <c r="C78" t="n">
-        <v>6066.05</v>
+        <v>4907.21</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.3966</v>
+        <v>2.38981</v>
       </c>
       <c r="B79" t="n">
-        <v>6.058380000000001</v>
+        <v>4.91161</v>
       </c>
       <c r="C79" t="n">
-        <v>6058.38</v>
+        <v>4911.61</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42732</v>
+        <v>2.4211</v>
       </c>
       <c r="B80" t="n">
-        <v>6.05021</v>
+        <v>4.89072</v>
       </c>
       <c r="C80" t="n">
-        <v>6050.21</v>
+        <v>4890.72</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45804</v>
+        <v>2.45061</v>
       </c>
       <c r="B81" t="n">
-        <v>6.04131</v>
+        <v>4.85145</v>
       </c>
       <c r="C81" t="n">
-        <v>6041.31</v>
+        <v>4851.45</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48876</v>
+        <v>2.48513</v>
       </c>
       <c r="B82" t="n">
-        <v>6.0317</v>
+        <v>4.82835</v>
       </c>
       <c r="C82" t="n">
-        <v>6031.7</v>
+        <v>4828.35</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51948</v>
+        <v>2.52033</v>
       </c>
       <c r="B83" t="n">
-        <v>6.021590000000001</v>
+        <v>4.8054</v>
       </c>
       <c r="C83" t="n">
-        <v>6021.59</v>
+        <v>4805.4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.5502</v>
+        <v>2.55467</v>
       </c>
       <c r="B84" t="n">
-        <v>6.01105</v>
+        <v>4.79758</v>
       </c>
       <c r="C84" t="n">
-        <v>6011.05</v>
+        <v>4797.58</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.58092</v>
+        <v>2.58673</v>
       </c>
       <c r="B85" t="n">
-        <v>6.00005</v>
+        <v>4.74515</v>
       </c>
       <c r="C85" t="n">
-        <v>6000.05</v>
+        <v>4745.15</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.61164</v>
+        <v>2.61873</v>
       </c>
       <c r="B86" t="n">
-        <v>5.98848</v>
+        <v>4.7428</v>
       </c>
       <c r="C86" t="n">
-        <v>5988.48</v>
+        <v>4742.8</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.64236</v>
+        <v>2.65073</v>
       </c>
       <c r="B87" t="n">
-        <v>5.97627</v>
+        <v>4.73207</v>
       </c>
       <c r="C87" t="n">
-        <v>5976.27</v>
+        <v>4732.07</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.67308</v>
+        <v>2.68273</v>
       </c>
       <c r="B88" t="n">
-        <v>5.96349</v>
+        <v>4.69515</v>
       </c>
       <c r="C88" t="n">
-        <v>5963.49</v>
+        <v>4695.15</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.7038</v>
+        <v>2.71473</v>
       </c>
       <c r="B89" t="n">
-        <v>5.95009</v>
+        <v>4.65079</v>
       </c>
       <c r="C89" t="n">
-        <v>5950.09</v>
+        <v>4650.79</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73452</v>
+        <v>2.74673</v>
       </c>
       <c r="B90" t="n">
-        <v>5.935930000000001</v>
+        <v>4.62917</v>
       </c>
       <c r="C90" t="n">
-        <v>5935.93</v>
+        <v>4629.17</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76524</v>
+        <v>2.77873</v>
       </c>
       <c r="B91" t="n">
-        <v>5.921060000000001</v>
+        <v>4.61925</v>
       </c>
       <c r="C91" t="n">
-        <v>5921.06</v>
+        <v>4619.25</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79596</v>
+        <v>2.80956</v>
       </c>
       <c r="B92" t="n">
-        <v>5.905310000000001</v>
+        <v>4.5963</v>
       </c>
       <c r="C92" t="n">
-        <v>5905.31</v>
+        <v>4596.3</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82668</v>
+        <v>2.83841</v>
       </c>
       <c r="B93" t="n">
-        <v>5.88853</v>
+        <v>4.56735</v>
       </c>
       <c r="C93" t="n">
-        <v>5888.53</v>
+        <v>4567.35</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85712</v>
+        <v>2.86721</v>
       </c>
       <c r="B94" t="n">
-        <v>5.87086</v>
+        <v>4.535850000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>5870.86</v>
+        <v>4535.85</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88699</v>
+        <v>2.89601</v>
       </c>
       <c r="B95" t="n">
-        <v>5.852279999999999</v>
+        <v>4.48907</v>
       </c>
       <c r="C95" t="n">
-        <v>5852.28</v>
+        <v>4489.07</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91685</v>
+        <v>2.92481</v>
       </c>
       <c r="B96" t="n">
-        <v>5.83262</v>
+        <v>4.48459</v>
       </c>
       <c r="C96" t="n">
-        <v>5832.62</v>
+        <v>4484.59</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94797</v>
+        <v>2.95361</v>
       </c>
       <c r="B97" t="n">
-        <v>5.81116</v>
+        <v>4.463</v>
       </c>
       <c r="C97" t="n">
-        <v>5811.16</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97988</v>
+        <v>2.98241</v>
       </c>
       <c r="B98" t="n">
-        <v>5.788189999999999</v>
+        <v>4.44932</v>
       </c>
       <c r="C98" t="n">
-        <v>5788.19</v>
+        <v>4449.32</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01097</v>
+        <v>3.01121</v>
       </c>
       <c r="B99" t="n">
-        <v>5.76437</v>
+        <v>4.43928</v>
       </c>
       <c r="C99" t="n">
-        <v>5764.37</v>
+        <v>4439.28</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04204</v>
+        <v>3.04001</v>
       </c>
       <c r="B100" t="n">
-        <v>5.739560000000001</v>
+        <v>4.384069999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>5739.56</v>
+        <v>4384.07</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07222</v>
+        <v>3.06881</v>
       </c>
       <c r="B101" t="n">
-        <v>5.71375</v>
+        <v>4.40091</v>
       </c>
       <c r="C101" t="n">
-        <v>5713.75</v>
+        <v>4400.91</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10324</v>
+        <v>3.09733</v>
       </c>
       <c r="B102" t="n">
-        <v>5.68619</v>
+        <v>4.352810000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>5686.19</v>
+        <v>4352.81</v>
       </c>
     </row>
   </sheetData>
